--- a/Code/Dev/Config/InstructOutputFormat.xlsx
+++ b/Code/Dev/Config/InstructOutputFormat.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/Code/Dev/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC10482A015D75DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63945F56-ECEA-41B6-9CEE-00F319DD55BD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10482A015D75DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D30ACDF-ADF8-4F91-B96F-FF947C3966B2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -480,7 +491,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
